--- a/db/db-challenge2/データベース定義書(高橋).xlsx
+++ b/db/db-challenge2/データベース定義書(高橋).xlsx
@@ -3,14 +3,14 @@
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
   <fileVersion appName="xl" lastEdited="7" lowestEdited="5" rupBuild="23427"/>
   <workbookPr/>
-  <xr:revisionPtr revIDLastSave="328" documentId="11_8E513BE869550975F20FED1A71AE06380525DFC9" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{05CADE6B-BAB6-4995-9A12-D3F69AA944A4}"/>
+  <xr:revisionPtr revIDLastSave="333" documentId="11_8E513BE869550975F20FED1A71AE06380525DFC9" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{AA898C8B-214A-4E56-A8EE-3D0DBE077EE6}"/>
   <bookViews>
-    <workbookView xWindow="510" yWindow="570" windowWidth="27735" windowHeight="11925" firstSheet="4" activeTab="3" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="510" yWindow="570" windowWidth="27735" windowHeight="11925" firstSheet="3" activeTab="2" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="改訂履歴" sheetId="1" r:id="rId1"/>
     <sheet name="記入例" sheetId="3" r:id="rId2"/>
-    <sheet name="user" sheetId="4" r:id="rId3"/>
+    <sheet name="users" sheetId="4" r:id="rId3"/>
     <sheet name="chatorooms" sheetId="7" r:id="rId4"/>
     <sheet name="chatroom_member" sheetId="5" r:id="rId5"/>
     <sheet name="posts" sheetId="6" r:id="rId6"/>
@@ -592,7 +592,7 @@
     <phoneticPr fontId="6"/>
   </si>
   <si>
-    <t>ユーザ</t>
+    <t>users</t>
   </si>
   <si>
     <t>ユーザ情報</t>
@@ -634,7 +634,7 @@
     <t>表示名</t>
   </si>
   <si>
-    <t>display_user_name</t>
+    <t>display_name</t>
   </si>
   <si>
     <t>自己紹介</t>
@@ -670,7 +670,7 @@
     <t>勤務先電話番号</t>
   </si>
   <si>
-    <t>phone_office</t>
+    <t>oficce_phone</t>
   </si>
   <si>
     <t>char</t>
@@ -682,7 +682,7 @@
     <t>携帯電話番号</t>
   </si>
   <si>
-    <t>phone_mobile</t>
+    <t>mobile_phone</t>
   </si>
   <si>
     <t>chatrooms</t>
@@ -1026,9 +1026,9 @@
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1"/>
     <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1"/>
     <xf numFmtId="0" fontId="8" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1"/>
     <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1"/>
@@ -1334,7 +1334,7 @@
         <v>43955</v>
       </c>
       <c r="B3" s="7"/>
-      <c r="C3" s="26" t="s">
+      <c r="C3" s="24" t="s">
         <v>5</v>
       </c>
       <c r="D3" s="7" t="s">
@@ -30156,15 +30156,15 @@
       </c>
       <c r="C1" s="28"/>
       <c r="D1" s="28"/>
-      <c r="E1" s="24"/>
-      <c r="F1" s="24"/>
-      <c r="G1" s="24"/>
-      <c r="H1" s="24"/>
-      <c r="I1" s="24"/>
-      <c r="J1" s="24"/>
-      <c r="K1" s="24"/>
-      <c r="L1" s="24"/>
-      <c r="M1" s="24"/>
+      <c r="E1" s="25"/>
+      <c r="F1" s="25"/>
+      <c r="G1" s="25"/>
+      <c r="H1" s="25"/>
+      <c r="I1" s="25"/>
+      <c r="J1" s="25"/>
+      <c r="K1" s="25"/>
+      <c r="L1" s="25"/>
+      <c r="M1" s="25"/>
     </row>
     <row r="2" spans="1:13">
       <c r="A2" s="3" t="s">
@@ -30175,15 +30175,15 @@
       </c>
       <c r="C2" s="28"/>
       <c r="D2" s="28"/>
-      <c r="E2" s="24"/>
-      <c r="F2" s="24"/>
-      <c r="G2" s="24"/>
-      <c r="H2" s="24"/>
-      <c r="I2" s="24"/>
-      <c r="J2" s="24"/>
-      <c r="K2" s="24"/>
-      <c r="L2" s="24"/>
-      <c r="M2" s="24"/>
+      <c r="E2" s="25"/>
+      <c r="F2" s="25"/>
+      <c r="G2" s="25"/>
+      <c r="H2" s="25"/>
+      <c r="I2" s="25"/>
+      <c r="J2" s="25"/>
+      <c r="K2" s="25"/>
+      <c r="L2" s="25"/>
+      <c r="M2" s="25"/>
     </row>
     <row r="3" spans="1:13">
       <c r="A3" s="3" t="s">
@@ -30194,18 +30194,18 @@
       </c>
       <c r="C3" s="28"/>
       <c r="D3" s="28"/>
-      <c r="E3" s="24"/>
-      <c r="F3" s="24"/>
-      <c r="G3" s="24"/>
-      <c r="H3" s="24"/>
-      <c r="I3" s="24"/>
-      <c r="J3" s="24"/>
-      <c r="K3" s="24"/>
-      <c r="L3" s="24"/>
-      <c r="M3" s="24"/>
+      <c r="E3" s="25"/>
+      <c r="F3" s="25"/>
+      <c r="G3" s="25"/>
+      <c r="H3" s="25"/>
+      <c r="I3" s="25"/>
+      <c r="J3" s="25"/>
+      <c r="K3" s="25"/>
+      <c r="L3" s="25"/>
+      <c r="M3" s="25"/>
     </row>
     <row r="4" spans="1:13">
-      <c r="A4" s="24"/>
+      <c r="A4" s="25"/>
       <c r="B4" s="2" t="s">
         <v>12</v>
       </c>
@@ -30236,11 +30236,11 @@
       <c r="K4" s="2" t="s">
         <v>10</v>
       </c>
-      <c r="L4" s="24"/>
-      <c r="M4" s="24"/>
+      <c r="L4" s="25"/>
+      <c r="M4" s="25"/>
     </row>
     <row r="5" spans="1:13">
-      <c r="A5" s="24"/>
+      <c r="A5" s="25"/>
       <c r="B5" s="5">
         <f t="shared" ref="B5:B12" si="0">ROW()-4</f>
         <v>1</v>
@@ -30268,11 +30268,11 @@
         <v>26</v>
       </c>
       <c r="K5" s="20"/>
-      <c r="L5" s="24"/>
-      <c r="M5" s="25"/>
+      <c r="L5" s="25"/>
+      <c r="M5" s="26"/>
     </row>
     <row r="6" spans="1:13">
-      <c r="A6" s="24"/>
+      <c r="A6" s="25"/>
       <c r="B6" s="5">
         <f t="shared" si="0"/>
         <v>2</v>
@@ -30296,11 +30296,11 @@
       <c r="I6" s="20"/>
       <c r="J6" s="20"/>
       <c r="K6" s="20"/>
-      <c r="L6" s="24"/>
-      <c r="M6" s="25"/>
+      <c r="L6" s="25"/>
+      <c r="M6" s="26"/>
     </row>
     <row r="7" spans="1:13">
-      <c r="A7" s="24"/>
+      <c r="A7" s="25"/>
       <c r="B7" s="5">
         <f t="shared" si="0"/>
         <v>3</v>
@@ -30322,11 +30322,11 @@
       <c r="I7" s="20"/>
       <c r="J7" s="20"/>
       <c r="K7" s="20"/>
-      <c r="L7" s="24"/>
-      <c r="M7" s="24"/>
+      <c r="L7" s="25"/>
+      <c r="M7" s="25"/>
     </row>
     <row r="8" spans="1:13">
-      <c r="A8" s="24"/>
+      <c r="A8" s="25"/>
       <c r="B8" s="5">
         <f t="shared" si="0"/>
         <v>4</v>
@@ -30354,11 +30354,11 @@
       <c r="K8" s="21" t="s">
         <v>36</v>
       </c>
-      <c r="L8" s="24"/>
-      <c r="M8" s="24"/>
+      <c r="L8" s="25"/>
+      <c r="M8" s="25"/>
     </row>
     <row r="9" spans="1:13">
-      <c r="A9" s="24"/>
+      <c r="A9" s="25"/>
       <c r="B9" s="5">
         <f t="shared" si="0"/>
         <v>5</v>
@@ -30380,11 +30380,11 @@
       <c r="I9" s="20"/>
       <c r="J9" s="20"/>
       <c r="K9" s="20"/>
-      <c r="L9" s="24"/>
-      <c r="M9" s="24"/>
+      <c r="L9" s="25"/>
+      <c r="M9" s="25"/>
     </row>
     <row r="10" spans="1:13">
-      <c r="A10" s="24"/>
+      <c r="A10" s="25"/>
       <c r="B10" s="5">
         <f t="shared" si="0"/>
         <v>6</v>
@@ -30408,11 +30408,11 @@
       <c r="I10" s="20"/>
       <c r="J10" s="20"/>
       <c r="K10" s="15"/>
-      <c r="L10" s="24"/>
-      <c r="M10" s="24"/>
+      <c r="L10" s="25"/>
+      <c r="M10" s="25"/>
     </row>
     <row r="11" spans="1:13">
-      <c r="A11" s="24"/>
+      <c r="A11" s="25"/>
       <c r="B11" s="5">
         <f t="shared" si="0"/>
         <v>7</v>
@@ -30434,11 +30434,11 @@
       <c r="I11" s="20"/>
       <c r="J11" s="20"/>
       <c r="K11" s="15"/>
-      <c r="L11" s="24"/>
-      <c r="M11" s="24"/>
+      <c r="L11" s="25"/>
+      <c r="M11" s="25"/>
     </row>
     <row r="12" spans="1:13">
-      <c r="A12" s="24"/>
+      <c r="A12" s="25"/>
       <c r="B12" s="5">
         <f t="shared" si="0"/>
         <v>8</v>
@@ -30462,8 +30462,8 @@
       <c r="I12" s="20"/>
       <c r="J12" s="20"/>
       <c r="K12" s="15"/>
-      <c r="L12" s="24"/>
-      <c r="M12" s="24"/>
+      <c r="L12" s="25"/>
+      <c r="M12" s="25"/>
     </row>
   </sheetData>
   <mergeCells count="3">
@@ -30484,9 +30484,9 @@
   </sheetPr>
   <dimension ref="A1:K16"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <pane ySplit="4" topLeftCell="C5" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="E8" sqref="E8"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <pane ySplit="4" topLeftCell="A8" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="D15" sqref="D15"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="14.42578125" defaultRowHeight="15.75" customHeight="1"/>
@@ -30511,13 +30511,13 @@
       </c>
       <c r="C1" s="30"/>
       <c r="D1" s="30"/>
-      <c r="E1" s="24"/>
-      <c r="F1" s="24"/>
-      <c r="G1" s="24"/>
-      <c r="H1" s="24"/>
-      <c r="I1" s="24"/>
-      <c r="J1" s="24"/>
-      <c r="K1" s="24"/>
+      <c r="E1" s="25"/>
+      <c r="F1" s="25"/>
+      <c r="G1" s="25"/>
+      <c r="H1" s="25"/>
+      <c r="I1" s="25"/>
+      <c r="J1" s="25"/>
+      <c r="K1" s="25"/>
     </row>
     <row r="2" spans="1:11" ht="12.75">
       <c r="A2" s="3" t="s">
@@ -30528,13 +30528,13 @@
       </c>
       <c r="C2" s="30"/>
       <c r="D2" s="30"/>
-      <c r="E2" s="24"/>
-      <c r="F2" s="24"/>
-      <c r="G2" s="24"/>
-      <c r="H2" s="24"/>
-      <c r="I2" s="24"/>
-      <c r="J2" s="24"/>
-      <c r="K2" s="24"/>
+      <c r="E2" s="25"/>
+      <c r="F2" s="25"/>
+      <c r="G2" s="25"/>
+      <c r="H2" s="25"/>
+      <c r="I2" s="25"/>
+      <c r="J2" s="25"/>
+      <c r="K2" s="25"/>
     </row>
     <row r="3" spans="1:11" ht="12.75">
       <c r="A3" s="3" t="s">
@@ -30543,16 +30543,16 @@
       <c r="B3" s="30"/>
       <c r="C3" s="30"/>
       <c r="D3" s="30"/>
-      <c r="E3" s="24"/>
-      <c r="F3" s="24"/>
-      <c r="G3" s="24"/>
-      <c r="H3" s="24"/>
-      <c r="I3" s="24"/>
-      <c r="J3" s="24"/>
-      <c r="K3" s="24"/>
+      <c r="E3" s="25"/>
+      <c r="F3" s="25"/>
+      <c r="G3" s="25"/>
+      <c r="H3" s="25"/>
+      <c r="I3" s="25"/>
+      <c r="J3" s="25"/>
+      <c r="K3" s="25"/>
     </row>
     <row r="4" spans="1:11" ht="12.75">
-      <c r="A4" s="24"/>
+      <c r="A4" s="25"/>
       <c r="B4" s="2" t="s">
         <v>12</v>
       </c>
@@ -30585,7 +30585,7 @@
       </c>
     </row>
     <row r="5" spans="1:11" ht="15.75" customHeight="1">
-      <c r="A5" s="24"/>
+      <c r="A5" s="25"/>
       <c r="B5" s="5">
         <f t="shared" ref="B5:B16" si="0">ROW()-4</f>
         <v>1</v>
@@ -30615,7 +30615,7 @@
       <c r="K5" s="20"/>
     </row>
     <row r="6" spans="1:11" ht="12.75">
-      <c r="A6" s="24"/>
+      <c r="A6" s="25"/>
       <c r="B6" s="5">
         <f t="shared" si="0"/>
         <v>2</v>
@@ -30641,7 +30641,7 @@
       <c r="K6" s="20"/>
     </row>
     <row r="7" spans="1:11" ht="12.75">
-      <c r="A7" s="24"/>
+      <c r="A7" s="25"/>
       <c r="B7" s="5">
         <f t="shared" si="0"/>
         <v>3</v>
@@ -30667,7 +30667,7 @@
       <c r="K7" s="20"/>
     </row>
     <row r="8" spans="1:11" ht="12.75">
-      <c r="A8" s="24"/>
+      <c r="A8" s="25"/>
       <c r="B8" s="5">
         <f t="shared" si="0"/>
         <v>4</v>
@@ -30693,7 +30693,7 @@
       <c r="K8" s="20"/>
     </row>
     <row r="9" spans="1:11" ht="12.75">
-      <c r="A9" s="24"/>
+      <c r="A9" s="25"/>
       <c r="B9" s="5">
         <f t="shared" si="0"/>
         <v>5</v>
@@ -30717,7 +30717,7 @@
       <c r="K9" s="20"/>
     </row>
     <row r="10" spans="1:11" ht="12.75">
-      <c r="A10" s="24"/>
+      <c r="A10" s="25"/>
       <c r="B10" s="5">
         <f t="shared" si="0"/>
         <v>6</v>
@@ -30741,7 +30741,7 @@
       <c r="K10" s="15"/>
     </row>
     <row r="11" spans="1:11" ht="12.75">
-      <c r="A11" s="24"/>
+      <c r="A11" s="25"/>
       <c r="B11" s="5">
         <f t="shared" si="0"/>
         <v>7</v>
@@ -30765,7 +30765,7 @@
       <c r="K11" s="15"/>
     </row>
     <row r="12" spans="1:11" ht="12.75">
-      <c r="A12" s="24"/>
+      <c r="A12" s="25"/>
       <c r="B12" s="5">
         <f t="shared" si="0"/>
         <v>8</v>
@@ -30793,7 +30793,7 @@
       <c r="K12" s="15"/>
     </row>
     <row r="13" spans="1:11" ht="12.75">
-      <c r="A13" s="24"/>
+      <c r="A13" s="25"/>
       <c r="B13" s="5">
         <f t="shared" si="0"/>
         <v>9</v>
@@ -30819,7 +30819,7 @@
       </c>
     </row>
     <row r="14" spans="1:11" ht="12.75">
-      <c r="A14" s="24"/>
+      <c r="A14" s="25"/>
       <c r="B14" s="5">
         <f t="shared" si="0"/>
         <v>10</v>
@@ -30843,7 +30843,7 @@
       <c r="K14" s="20"/>
     </row>
     <row r="15" spans="1:11" ht="12.75">
-      <c r="A15" s="24"/>
+      <c r="A15" s="25"/>
       <c r="B15" s="5">
         <f t="shared" si="0"/>
         <v>11</v>
@@ -30859,7 +30859,7 @@
       <c r="K15" s="20"/>
     </row>
     <row r="16" spans="1:11" ht="12.75">
-      <c r="A16" s="24"/>
+      <c r="A16" s="25"/>
       <c r="B16" s="5">
         <f t="shared" si="0"/>
         <v>12</v>
@@ -30893,8 +30893,8 @@
   </sheetPr>
   <dimension ref="A1:K16"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <pane ySplit="4" topLeftCell="C5" activePane="bottomLeft" state="frozen"/>
+    <sheetView workbookViewId="0">
+      <pane ySplit="4" topLeftCell="H14" activePane="bottomLeft" state="frozen"/>
       <selection pane="bottomLeft" activeCell="H14" sqref="H14"/>
     </sheetView>
   </sheetViews>
@@ -30922,13 +30922,13 @@
       </c>
       <c r="C1" s="30"/>
       <c r="D1" s="30"/>
-      <c r="E1" s="24"/>
-      <c r="F1" s="24"/>
-      <c r="G1" s="24"/>
-      <c r="H1" s="24"/>
-      <c r="I1" s="24"/>
-      <c r="J1" s="24"/>
-      <c r="K1" s="24"/>
+      <c r="E1" s="25"/>
+      <c r="F1" s="25"/>
+      <c r="G1" s="25"/>
+      <c r="H1" s="25"/>
+      <c r="I1" s="25"/>
+      <c r="J1" s="25"/>
+      <c r="K1" s="25"/>
     </row>
     <row r="2" spans="1:11" ht="12.75">
       <c r="A2" s="3" t="s">
@@ -30939,13 +30939,13 @@
       </c>
       <c r="C2" s="30"/>
       <c r="D2" s="30"/>
-      <c r="E2" s="24"/>
-      <c r="F2" s="24"/>
-      <c r="G2" s="24"/>
-      <c r="H2" s="24"/>
-      <c r="I2" s="24"/>
-      <c r="J2" s="24"/>
-      <c r="K2" s="24"/>
+      <c r="E2" s="25"/>
+      <c r="F2" s="25"/>
+      <c r="G2" s="25"/>
+      <c r="H2" s="25"/>
+      <c r="I2" s="25"/>
+      <c r="J2" s="25"/>
+      <c r="K2" s="25"/>
     </row>
     <row r="3" spans="1:11" ht="12.75">
       <c r="A3" s="3" t="s">
@@ -30954,16 +30954,16 @@
       <c r="B3" s="30"/>
       <c r="C3" s="30"/>
       <c r="D3" s="30"/>
-      <c r="E3" s="24"/>
-      <c r="F3" s="24"/>
-      <c r="G3" s="24"/>
-      <c r="H3" s="24"/>
-      <c r="I3" s="24"/>
-      <c r="J3" s="24"/>
-      <c r="K3" s="24"/>
+      <c r="E3" s="25"/>
+      <c r="F3" s="25"/>
+      <c r="G3" s="25"/>
+      <c r="H3" s="25"/>
+      <c r="I3" s="25"/>
+      <c r="J3" s="25"/>
+      <c r="K3" s="25"/>
     </row>
     <row r="4" spans="1:11" ht="12.75">
-      <c r="A4" s="24"/>
+      <c r="A4" s="25"/>
       <c r="B4" s="2" t="s">
         <v>12</v>
       </c>
@@ -30996,7 +30996,7 @@
       </c>
     </row>
     <row r="5" spans="1:11" ht="15.75" customHeight="1">
-      <c r="A5" s="24"/>
+      <c r="A5" s="25"/>
       <c r="B5" s="5">
         <f t="shared" ref="B5:B16" si="0">ROW()-4</f>
         <v>1</v>
@@ -31026,7 +31026,7 @@
       <c r="K5" s="20"/>
     </row>
     <row r="6" spans="1:11" ht="12.75">
-      <c r="A6" s="24"/>
+      <c r="A6" s="25"/>
       <c r="B6" s="5">
         <f t="shared" si="0"/>
         <v>2</v>
@@ -31052,7 +31052,7 @@
       <c r="K6" s="20"/>
     </row>
     <row r="7" spans="1:11" ht="12.75">
-      <c r="A7" s="24"/>
+      <c r="A7" s="25"/>
       <c r="B7" s="5">
         <f t="shared" si="0"/>
         <v>3</v>
@@ -31076,7 +31076,7 @@
       <c r="K7" s="20"/>
     </row>
     <row r="8" spans="1:11" ht="12.75">
-      <c r="A8" s="24"/>
+      <c r="A8" s="25"/>
       <c r="B8" s="5">
         <f t="shared" si="0"/>
         <v>4</v>
@@ -31106,7 +31106,7 @@
       </c>
     </row>
     <row r="9" spans="1:11" ht="12.75">
-      <c r="A9" s="24"/>
+      <c r="A9" s="25"/>
       <c r="B9" s="5">
         <f t="shared" si="0"/>
         <v>5</v>
@@ -31132,7 +31132,7 @@
       <c r="K9" s="20"/>
     </row>
     <row r="10" spans="1:11" ht="12.75">
-      <c r="A10" s="24"/>
+      <c r="A10" s="25"/>
       <c r="B10" s="5">
         <f t="shared" si="0"/>
         <v>6</v>
@@ -31162,7 +31162,7 @@
       </c>
     </row>
     <row r="11" spans="1:11" ht="12.75">
-      <c r="A11" s="24"/>
+      <c r="A11" s="25"/>
       <c r="B11" s="5">
         <f t="shared" si="0"/>
         <v>7</v>
@@ -31190,7 +31190,7 @@
       <c r="K11" s="15"/>
     </row>
     <row r="12" spans="1:11" ht="12.75">
-      <c r="A12" s="24"/>
+      <c r="A12" s="25"/>
       <c r="B12" s="5">
         <f t="shared" si="0"/>
         <v>8</v>
@@ -31214,7 +31214,7 @@
       <c r="K12" s="15"/>
     </row>
     <row r="13" spans="1:11" ht="12.75">
-      <c r="A13" s="24"/>
+      <c r="A13" s="25"/>
       <c r="B13" s="5">
         <f t="shared" si="0"/>
         <v>9</v>
@@ -31242,7 +31242,7 @@
       <c r="K13" s="20"/>
     </row>
     <row r="14" spans="1:11" ht="12.75">
-      <c r="A14" s="24"/>
+      <c r="A14" s="25"/>
       <c r="B14" s="5">
         <f t="shared" si="0"/>
         <v>10</v>
@@ -31266,7 +31266,7 @@
       <c r="K14" s="20"/>
     </row>
     <row r="15" spans="1:11" ht="12.75">
-      <c r="A15" s="24"/>
+      <c r="A15" s="25"/>
       <c r="B15" s="5">
         <f t="shared" si="0"/>
         <v>11</v>
@@ -31282,7 +31282,7 @@
       <c r="K15" s="20"/>
     </row>
     <row r="16" spans="1:11" ht="12.75">
-      <c r="A16" s="24"/>
+      <c r="A16" s="25"/>
       <c r="B16" s="5">
         <f t="shared" si="0"/>
         <v>12</v>
@@ -31343,13 +31343,13 @@
       </c>
       <c r="C1" s="30"/>
       <c r="D1" s="30"/>
-      <c r="E1" s="24"/>
-      <c r="F1" s="24"/>
-      <c r="G1" s="24"/>
-      <c r="H1" s="24"/>
-      <c r="I1" s="24"/>
-      <c r="J1" s="24"/>
-      <c r="K1" s="24"/>
+      <c r="E1" s="25"/>
+      <c r="F1" s="25"/>
+      <c r="G1" s="25"/>
+      <c r="H1" s="25"/>
+      <c r="I1" s="25"/>
+      <c r="J1" s="25"/>
+      <c r="K1" s="25"/>
     </row>
     <row r="2" spans="1:11" ht="12.75">
       <c r="A2" s="3" t="s">
@@ -31360,13 +31360,13 @@
       </c>
       <c r="C2" s="30"/>
       <c r="D2" s="30"/>
-      <c r="E2" s="24"/>
-      <c r="F2" s="24"/>
-      <c r="G2" s="24"/>
-      <c r="H2" s="24"/>
-      <c r="I2" s="24"/>
-      <c r="J2" s="24"/>
-      <c r="K2" s="24"/>
+      <c r="E2" s="25"/>
+      <c r="F2" s="25"/>
+      <c r="G2" s="25"/>
+      <c r="H2" s="25"/>
+      <c r="I2" s="25"/>
+      <c r="J2" s="25"/>
+      <c r="K2" s="25"/>
     </row>
     <row r="3" spans="1:11" ht="12.75">
       <c r="A3" s="3" t="s">
@@ -31375,16 +31375,16 @@
       <c r="B3" s="30"/>
       <c r="C3" s="30"/>
       <c r="D3" s="30"/>
-      <c r="E3" s="24"/>
-      <c r="F3" s="24"/>
-      <c r="G3" s="24"/>
-      <c r="H3" s="24"/>
-      <c r="I3" s="24"/>
-      <c r="J3" s="24"/>
-      <c r="K3" s="24"/>
+      <c r="E3" s="25"/>
+      <c r="F3" s="25"/>
+      <c r="G3" s="25"/>
+      <c r="H3" s="25"/>
+      <c r="I3" s="25"/>
+      <c r="J3" s="25"/>
+      <c r="K3" s="25"/>
     </row>
     <row r="4" spans="1:11" ht="12.75">
-      <c r="A4" s="24"/>
+      <c r="A4" s="25"/>
       <c r="B4" s="2" t="s">
         <v>12</v>
       </c>
@@ -31417,7 +31417,7 @@
       </c>
     </row>
     <row r="5" spans="1:11" ht="15.75" customHeight="1">
-      <c r="A5" s="24"/>
+      <c r="A5" s="25"/>
       <c r="B5" s="5">
         <f t="shared" ref="B5:B16" si="0">ROW()-4</f>
         <v>1</v>
@@ -31445,7 +31445,7 @@
       <c r="K5" s="20"/>
     </row>
     <row r="6" spans="1:11" ht="12.75">
-      <c r="A6" s="24"/>
+      <c r="A6" s="25"/>
       <c r="B6" s="5">
         <f t="shared" si="0"/>
         <v>2</v>
@@ -31473,7 +31473,7 @@
       <c r="K6" s="20"/>
     </row>
     <row r="7" spans="1:11" ht="12.75">
-      <c r="A7" s="24"/>
+      <c r="A7" s="25"/>
       <c r="B7" s="5">
         <f t="shared" si="0"/>
         <v>3</v>
@@ -31499,7 +31499,7 @@
       <c r="K7" s="20"/>
     </row>
     <row r="8" spans="1:11" ht="12.75">
-      <c r="A8" s="24"/>
+      <c r="A8" s="25"/>
       <c r="B8" s="5">
         <f t="shared" si="0"/>
         <v>4</v>
@@ -31515,7 +31515,7 @@
       <c r="K8" s="20"/>
     </row>
     <row r="9" spans="1:11" ht="12.75">
-      <c r="A9" s="24"/>
+      <c r="A9" s="25"/>
       <c r="B9" s="5">
         <f t="shared" si="0"/>
         <v>5</v>
@@ -31531,7 +31531,7 @@
       <c r="K9" s="20"/>
     </row>
     <row r="10" spans="1:11" ht="12.75">
-      <c r="A10" s="24"/>
+      <c r="A10" s="25"/>
       <c r="B10" s="5">
         <f t="shared" si="0"/>
         <v>6</v>
@@ -31547,7 +31547,7 @@
       <c r="K10" s="15"/>
     </row>
     <row r="11" spans="1:11" ht="12.75">
-      <c r="A11" s="24"/>
+      <c r="A11" s="25"/>
       <c r="B11" s="5">
         <f t="shared" si="0"/>
         <v>7</v>
@@ -31563,7 +31563,7 @@
       <c r="K11" s="15"/>
     </row>
     <row r="12" spans="1:11" ht="12.75">
-      <c r="A12" s="24"/>
+      <c r="A12" s="25"/>
       <c r="B12" s="5">
         <f t="shared" si="0"/>
         <v>8</v>
@@ -31579,7 +31579,7 @@
       <c r="K12" s="15"/>
     </row>
     <row r="13" spans="1:11" ht="12.75">
-      <c r="A13" s="24"/>
+      <c r="A13" s="25"/>
       <c r="B13" s="5">
         <f t="shared" si="0"/>
         <v>9</v>
@@ -31595,7 +31595,7 @@
       <c r="K13" s="20"/>
     </row>
     <row r="14" spans="1:11" ht="12.75">
-      <c r="A14" s="24"/>
+      <c r="A14" s="25"/>
       <c r="B14" s="5">
         <f t="shared" si="0"/>
         <v>10</v>
@@ -31611,7 +31611,7 @@
       <c r="K14" s="20"/>
     </row>
     <row r="15" spans="1:11" ht="12.75">
-      <c r="A15" s="24"/>
+      <c r="A15" s="25"/>
       <c r="B15" s="5">
         <f t="shared" si="0"/>
         <v>11</v>
@@ -31627,7 +31627,7 @@
       <c r="K15" s="20"/>
     </row>
     <row r="16" spans="1:11" ht="12.75">
-      <c r="A16" s="24"/>
+      <c r="A16" s="25"/>
       <c r="B16" s="5">
         <f t="shared" si="0"/>
         <v>12</v>
@@ -31688,13 +31688,13 @@
       </c>
       <c r="C1" s="30"/>
       <c r="D1" s="30"/>
-      <c r="E1" s="24"/>
-      <c r="F1" s="24"/>
-      <c r="G1" s="24"/>
-      <c r="H1" s="24"/>
-      <c r="I1" s="24"/>
-      <c r="J1" s="24"/>
-      <c r="K1" s="24"/>
+      <c r="E1" s="25"/>
+      <c r="F1" s="25"/>
+      <c r="G1" s="25"/>
+      <c r="H1" s="25"/>
+      <c r="I1" s="25"/>
+      <c r="J1" s="25"/>
+      <c r="K1" s="25"/>
     </row>
     <row r="2" spans="1:11" ht="12.75">
       <c r="A2" s="3" t="s">
@@ -31705,13 +31705,13 @@
       </c>
       <c r="C2" s="30"/>
       <c r="D2" s="30"/>
-      <c r="E2" s="24"/>
-      <c r="F2" s="24"/>
-      <c r="G2" s="24"/>
-      <c r="H2" s="24"/>
-      <c r="I2" s="24"/>
-      <c r="J2" s="24"/>
-      <c r="K2" s="24"/>
+      <c r="E2" s="25"/>
+      <c r="F2" s="25"/>
+      <c r="G2" s="25"/>
+      <c r="H2" s="25"/>
+      <c r="I2" s="25"/>
+      <c r="J2" s="25"/>
+      <c r="K2" s="25"/>
     </row>
     <row r="3" spans="1:11" ht="12.75">
       <c r="A3" s="3" t="s">
@@ -31720,16 +31720,16 @@
       <c r="B3" s="30"/>
       <c r="C3" s="30"/>
       <c r="D3" s="30"/>
-      <c r="E3" s="24"/>
-      <c r="F3" s="24"/>
-      <c r="G3" s="24"/>
-      <c r="H3" s="24"/>
-      <c r="I3" s="24"/>
-      <c r="J3" s="24"/>
-      <c r="K3" s="24"/>
+      <c r="E3" s="25"/>
+      <c r="F3" s="25"/>
+      <c r="G3" s="25"/>
+      <c r="H3" s="25"/>
+      <c r="I3" s="25"/>
+      <c r="J3" s="25"/>
+      <c r="K3" s="25"/>
     </row>
     <row r="4" spans="1:11" ht="12.75">
-      <c r="A4" s="24"/>
+      <c r="A4" s="25"/>
       <c r="B4" s="2" t="s">
         <v>12</v>
       </c>
@@ -31762,7 +31762,7 @@
       </c>
     </row>
     <row r="5" spans="1:11" ht="15.75" customHeight="1">
-      <c r="A5" s="24"/>
+      <c r="A5" s="25"/>
       <c r="B5" s="5">
         <f t="shared" ref="B5:B16" si="0">ROW()-4</f>
         <v>1</v>
@@ -31792,7 +31792,7 @@
       <c r="K5" s="20"/>
     </row>
     <row r="6" spans="1:11" ht="12.75">
-      <c r="A6" s="24"/>
+      <c r="A6" s="25"/>
       <c r="B6" s="5">
         <f t="shared" si="0"/>
         <v>2</v>
@@ -31820,7 +31820,7 @@
       <c r="K6" s="20"/>
     </row>
     <row r="7" spans="1:11" ht="12.75">
-      <c r="A7" s="24"/>
+      <c r="A7" s="25"/>
       <c r="B7" s="5">
         <f t="shared" si="0"/>
         <v>3</v>
@@ -31848,7 +31848,7 @@
       <c r="K7" s="20"/>
     </row>
     <row r="8" spans="1:11" ht="12.75">
-      <c r="A8" s="24"/>
+      <c r="A8" s="25"/>
       <c r="B8" s="5">
         <f t="shared" si="0"/>
         <v>4</v>
@@ -31874,7 +31874,7 @@
       <c r="K8" s="20"/>
     </row>
     <row r="9" spans="1:11" ht="12.75">
-      <c r="A9" s="24"/>
+      <c r="A9" s="25"/>
       <c r="B9" s="5">
         <f t="shared" si="0"/>
         <v>5</v>
@@ -31898,7 +31898,7 @@
       <c r="K9" s="20"/>
     </row>
     <row r="10" spans="1:11" ht="12.75">
-      <c r="A10" s="24"/>
+      <c r="A10" s="25"/>
       <c r="B10" s="5">
         <f t="shared" si="0"/>
         <v>6</v>
@@ -31928,7 +31928,7 @@
       </c>
     </row>
     <row r="11" spans="1:11" ht="12.75">
-      <c r="A11" s="24"/>
+      <c r="A11" s="25"/>
       <c r="B11" s="5">
         <f t="shared" si="0"/>
         <v>7</v>
@@ -31952,7 +31952,7 @@
       <c r="K11" s="15"/>
     </row>
     <row r="12" spans="1:11" ht="12.75">
-      <c r="A12" s="24"/>
+      <c r="A12" s="25"/>
       <c r="B12" s="5">
         <f t="shared" si="0"/>
         <v>8</v>
@@ -31976,7 +31976,7 @@
       <c r="K12" s="15"/>
     </row>
     <row r="13" spans="1:11" ht="12.75">
-      <c r="A13" s="24"/>
+      <c r="A13" s="25"/>
       <c r="B13" s="5">
         <f t="shared" si="0"/>
         <v>9</v>
@@ -32004,7 +32004,7 @@
       <c r="K13" s="20"/>
     </row>
     <row r="14" spans="1:11" ht="12.75">
-      <c r="A14" s="24"/>
+      <c r="A14" s="25"/>
       <c r="B14" s="5">
         <f t="shared" si="0"/>
         <v>10</v>
@@ -32020,7 +32020,7 @@
       <c r="K14" s="20"/>
     </row>
     <row r="15" spans="1:11" ht="12.75">
-      <c r="A15" s="24"/>
+      <c r="A15" s="25"/>
       <c r="B15" s="5">
         <f t="shared" si="0"/>
         <v>11</v>
@@ -32036,7 +32036,7 @@
       <c r="K15" s="20"/>
     </row>
     <row r="16" spans="1:11" ht="12.75">
-      <c r="A16" s="24"/>
+      <c r="A16" s="25"/>
       <c r="B16" s="5">
         <f t="shared" si="0"/>
         <v>12</v>
@@ -32094,13 +32094,13 @@
       </c>
       <c r="C1" s="30"/>
       <c r="D1" s="30"/>
-      <c r="E1" s="24"/>
-      <c r="F1" s="24"/>
-      <c r="G1" s="24"/>
-      <c r="H1" s="24"/>
-      <c r="I1" s="24"/>
-      <c r="J1" s="24"/>
-      <c r="K1" s="24"/>
+      <c r="E1" s="25"/>
+      <c r="F1" s="25"/>
+      <c r="G1" s="25"/>
+      <c r="H1" s="25"/>
+      <c r="I1" s="25"/>
+      <c r="J1" s="25"/>
+      <c r="K1" s="25"/>
     </row>
     <row r="2" spans="1:11" ht="12.75">
       <c r="A2" s="3" t="s">
@@ -32111,13 +32111,13 @@
       </c>
       <c r="C2" s="30"/>
       <c r="D2" s="30"/>
-      <c r="E2" s="24"/>
-      <c r="F2" s="24"/>
-      <c r="G2" s="24"/>
-      <c r="H2" s="24"/>
-      <c r="I2" s="24"/>
-      <c r="J2" s="24"/>
-      <c r="K2" s="24"/>
+      <c r="E2" s="25"/>
+      <c r="F2" s="25"/>
+      <c r="G2" s="25"/>
+      <c r="H2" s="25"/>
+      <c r="I2" s="25"/>
+      <c r="J2" s="25"/>
+      <c r="K2" s="25"/>
     </row>
     <row r="3" spans="1:11" ht="12.75">
       <c r="A3" s="3" t="s">
@@ -32126,16 +32126,16 @@
       <c r="B3" s="30"/>
       <c r="C3" s="30"/>
       <c r="D3" s="30"/>
-      <c r="E3" s="24"/>
-      <c r="F3" s="24"/>
-      <c r="G3" s="24"/>
-      <c r="H3" s="24"/>
-      <c r="I3" s="24"/>
-      <c r="J3" s="24"/>
-      <c r="K3" s="24"/>
+      <c r="E3" s="25"/>
+      <c r="F3" s="25"/>
+      <c r="G3" s="25"/>
+      <c r="H3" s="25"/>
+      <c r="I3" s="25"/>
+      <c r="J3" s="25"/>
+      <c r="K3" s="25"/>
     </row>
     <row r="4" spans="1:11" ht="12.75">
-      <c r="A4" s="24"/>
+      <c r="A4" s="25"/>
       <c r="B4" s="2" t="s">
         <v>12</v>
       </c>
@@ -32168,7 +32168,7 @@
       </c>
     </row>
     <row r="5" spans="1:11" ht="15.75" customHeight="1">
-      <c r="A5" s="24"/>
+      <c r="A5" s="25"/>
       <c r="B5" s="5">
         <f t="shared" ref="B5:B16" si="0">ROW()-4</f>
         <v>1</v>
@@ -32198,7 +32198,7 @@
       <c r="K5" s="20"/>
     </row>
     <row r="6" spans="1:11" ht="12.75">
-      <c r="A6" s="24"/>
+      <c r="A6" s="25"/>
       <c r="B6" s="5">
         <f t="shared" si="0"/>
         <v>2</v>
@@ -32224,7 +32224,7 @@
       <c r="K6" s="20"/>
     </row>
     <row r="7" spans="1:11" ht="12.75">
-      <c r="A7" s="24"/>
+      <c r="A7" s="25"/>
       <c r="B7" s="5">
         <f t="shared" si="0"/>
         <v>3</v>
@@ -32252,7 +32252,7 @@
       <c r="K7" s="20"/>
     </row>
     <row r="8" spans="1:11" ht="12.75">
-      <c r="A8" s="24"/>
+      <c r="A8" s="25"/>
       <c r="B8" s="5">
         <f t="shared" si="0"/>
         <v>4</v>
@@ -32280,7 +32280,7 @@
       <c r="K8" s="20"/>
     </row>
     <row r="9" spans="1:11" ht="12.75">
-      <c r="A9" s="24"/>
+      <c r="A9" s="25"/>
       <c r="B9" s="5">
         <f t="shared" si="0"/>
         <v>5</v>
@@ -32302,7 +32302,7 @@
       <c r="K9" s="20"/>
     </row>
     <row r="10" spans="1:11" ht="12.75">
-      <c r="A10" s="24"/>
+      <c r="A10" s="25"/>
       <c r="B10" s="5">
         <f t="shared" si="0"/>
         <v>6</v>
@@ -32332,7 +32332,7 @@
       </c>
     </row>
     <row r="11" spans="1:11" ht="12.75">
-      <c r="A11" s="24"/>
+      <c r="A11" s="25"/>
       <c r="B11" s="5">
         <f t="shared" si="0"/>
         <v>7</v>
@@ -32362,7 +32362,7 @@
       </c>
     </row>
     <row r="12" spans="1:11" ht="12.75">
-      <c r="A12" s="24"/>
+      <c r="A12" s="25"/>
       <c r="B12" s="5">
         <f t="shared" si="0"/>
         <v>8</v>
@@ -32386,7 +32386,7 @@
       <c r="K12" s="15"/>
     </row>
     <row r="13" spans="1:11" ht="12.75">
-      <c r="A13" s="24"/>
+      <c r="A13" s="25"/>
       <c r="B13" s="5">
         <f t="shared" si="0"/>
         <v>9</v>
@@ -32414,7 +32414,7 @@
       <c r="K13" s="20"/>
     </row>
     <row r="14" spans="1:11" ht="12.75">
-      <c r="A14" s="24"/>
+      <c r="A14" s="25"/>
       <c r="B14" s="5">
         <f t="shared" si="0"/>
         <v>10</v>
@@ -32438,7 +32438,7 @@
       <c r="K14" s="20"/>
     </row>
     <row r="15" spans="1:11" ht="12.75">
-      <c r="A15" s="24"/>
+      <c r="A15" s="25"/>
       <c r="B15" s="5">
         <f t="shared" si="0"/>
         <v>11</v>
@@ -32466,7 +32466,7 @@
       <c r="K15" s="20"/>
     </row>
     <row r="16" spans="1:11" ht="12.75">
-      <c r="A16" s="24"/>
+      <c r="A16" s="25"/>
       <c r="B16" s="5">
         <f t="shared" si="0"/>
         <v>12</v>

--- a/db/db-challenge2/データベース定義書(高橋).xlsx
+++ b/db/db-challenge2/データベース定義書(高橋).xlsx
@@ -3,16 +3,16 @@
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
   <fileVersion appName="xl" lastEdited="7" lowestEdited="5" rupBuild="23427"/>
   <workbookPr/>
-  <xr:revisionPtr revIDLastSave="333" documentId="11_8E513BE869550975F20FED1A71AE06380525DFC9" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{AA898C8B-214A-4E56-A8EE-3D0DBE077EE6}"/>
+  <xr:revisionPtr revIDLastSave="335" documentId="11_8E513BE869550975F20FED1A71AE06380525DFC9" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{02C3A64E-F936-42FE-A1B8-C90DEA50F780}"/>
   <bookViews>
-    <workbookView xWindow="510" yWindow="570" windowWidth="27735" windowHeight="11925" firstSheet="3" activeTab="2" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="510" yWindow="570" windowWidth="27735" windowHeight="11925" firstSheet="2" activeTab="4" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="改訂履歴" sheetId="1" r:id="rId1"/>
     <sheet name="記入例" sheetId="3" r:id="rId2"/>
     <sheet name="users" sheetId="4" r:id="rId3"/>
     <sheet name="chatorooms" sheetId="7" r:id="rId4"/>
-    <sheet name="chatroom_member" sheetId="5" r:id="rId5"/>
+    <sheet name="chatroom_members" sheetId="5" r:id="rId5"/>
     <sheet name="posts" sheetId="6" r:id="rId6"/>
     <sheet name="tasks" sheetId="2" r:id="rId7"/>
   </sheets>
@@ -739,7 +739,7 @@
     <t>modified_user_id</t>
   </si>
   <si>
-    <t>chatroom_member</t>
+    <t>chatroom_members</t>
   </si>
   <si>
     <t>あるチャットルームに参加しているユーザを管理</t>
@@ -30484,8 +30484,8 @@
   </sheetPr>
   <dimension ref="A1:K16"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <pane ySplit="4" topLeftCell="A8" activePane="bottomLeft" state="frozen"/>
+    <sheetView workbookViewId="0">
+      <pane ySplit="4" topLeftCell="D15" activePane="bottomLeft" state="frozen"/>
       <selection pane="bottomLeft" activeCell="D15" sqref="D15"/>
     </sheetView>
   </sheetViews>
@@ -31316,9 +31316,9 @@
   </sheetPr>
   <dimension ref="A1:K16"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <pane ySplit="4" topLeftCell="E5" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="I7" sqref="I7"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <pane ySplit="4" topLeftCell="A7" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="B1" sqref="B1:D1"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="14.42578125" defaultRowHeight="15.75" customHeight="1"/>
